--- a/data/TC018.xlsx
+++ b/data/TC018.xlsx
@@ -33,27 +33,12 @@
     <t>emailUsername</t>
   </si>
   <si>
-    <t>freetest@urcomp.com</t>
-  </si>
-  <si>
-    <t>09safepass</t>
-  </si>
-  <si>
     <t>Verify Your Identity</t>
   </si>
   <si>
-    <t>portgsr007@gmail.com</t>
-  </si>
-  <si>
-    <t>gsrtest#123</t>
-  </si>
-  <si>
     <t>leadName</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>verifyLeadname</t>
   </si>
   <si>
@@ -61,19 +46,40 @@
   </si>
   <si>
     <t>Working - Contacted</t>
+  </si>
+  <si>
+    <t>antman@inc.com</t>
+  </si>
+  <si>
+    <t>hunt@007</t>
+  </si>
+  <si>
+    <t>antman.hunt@gmail.com</t>
+  </si>
+  <si>
+    <t>hunt#123</t>
+  </si>
+  <si>
+    <t>Antony Joseph Rajenderan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +409,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,8 +419,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,39 +440,39 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
